--- a/data/Starter.xlsx
+++ b/data/Starter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\Global-COVID-Surveillance\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405E18B0-48E6-4A41-86CC-72E6E1101674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD3A1AB-2022-4D51-BF3B-ED93CF7A67F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{906482DF-3357-406F-9447-66FA5A4C0FD8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Level</t>
   </si>
@@ -40,6 +40,36 @@
   </si>
   <si>
     <t>Excel Date</t>
+  </si>
+  <si>
+    <t>Sargan Test</t>
+  </si>
+  <si>
+    <t>Autocorrelation Test 1</t>
+  </si>
+  <si>
+    <t>Autocorrelation Test 2</t>
+  </si>
+  <si>
+    <t>Wald Test</t>
+  </si>
+  <si>
+    <t>Sargan Test P-Value</t>
+  </si>
+  <si>
+    <t>Sargan Test Chisq</t>
+  </si>
+  <si>
+    <t>Wald Test Chisq</t>
+  </si>
+  <si>
+    <t>Wald Test P-Value</t>
+  </si>
+  <si>
+    <t>Autocorrelation Test 1 P-Value</t>
+  </si>
+  <si>
+    <t>Autocorrelation Test 2 P-Value</t>
   </si>
 </sst>
 </file>
@@ -391,21 +421,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E13DA6-DF00-451A-9903-153DA8E2998E}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="UVP1" sqref="P1:UVP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="1" max="1" width="4.734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.3125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.83984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1015625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.47265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.41796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.20703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.47265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.15625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.9453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.3671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.89453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.3671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.89453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,6 +461,36 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
